--- a/excel_python/03/data/sales/2001.xlsx
+++ b/excel_python/03/data/sales/2001.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuri/Dropbox/My Works/Text/번역/Excel x Python으로 빠른 퇴근하는 방법 [2020.03.02]/9593/日経BP/excel_python/03/data/sales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitAdd\excel_python\03\data\sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7021837-6210-CC41-B11E-F2F9583E55AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="460" windowWidth="16300" windowHeight="13280" xr2:uid="{C5FC12CC-C7EA-4796-9C75-41B24637C1D6}"/>
+    <workbookView xWindow="7224" yWindow="456" windowWidth="16296" windowHeight="13284"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -135,23 +134,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="00000"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="00000"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -159,7 +158,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -168,7 +167,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -239,7 +238,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -272,28 +271,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -604,40 +603,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291524EA-ADA8-413F-87F9-363796103DB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="27.69921875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -645,11 +644,11 @@
         <v>1020765</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="15"/>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
@@ -657,22 +656,22 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
@@ -683,7 +682,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -702,12 +701,12 @@
       <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -730,7 +729,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -753,7 +752,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -778,7 +777,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -798,10 +797,10 @@
         <f t="shared" si="0"/>
         <v>273000</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -821,10 +820,10 @@
         <f t="shared" ref="F13" si="1">D13*E13</f>
         <v>210000</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -833,10 +832,10 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -845,10 +844,10 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>8</v>
       </c>
@@ -857,10 +856,10 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
         <v>9</v>
       </c>
@@ -869,10 +868,10 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>10</v>
       </c>
@@ -884,7 +883,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E19" s="9" t="s">
         <v>17</v>
       </c>
@@ -893,7 +892,7 @@
         <v>1260000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E20" s="9" t="s">
         <v>18</v>
       </c>
@@ -905,13 +904,311 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="10">
         <f>F19+F20</f>
         <v>1386000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="27.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>1020766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2250</v>
+      </c>
+      <c r="F9" s="7">
+        <f>D9*E9</f>
+        <v>225000</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>120</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2250</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" ref="F10" si="0">D10*E10</f>
+        <v>270000</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="10">
+        <f>SUM(F9:F18)</f>
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10">
+        <f>F19*G20</f>
+        <v>49500</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="10">
+        <f>F19+F20</f>
+        <v>544500</v>
       </c>
     </row>
   </sheetData>
@@ -934,302 +1231,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A2A2D-3F17-43DA-B977-A63EF6B8868F}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>1020766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7">
-        <v>100</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2250</v>
-      </c>
-      <c r="F9" s="7">
-        <f>D9*E9</f>
-        <v>225000</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7">
-        <v>120</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2250</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" ref="F10" si="0">D10*E10</f>
-        <v>270000</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>6</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>7</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>8</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>10</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="10">
-        <f>SUM(F9:F18)</f>
-        <v>495000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="10">
-        <f>F19*G20</f>
-        <v>49500</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="10">
-        <f>F19+F20</f>
-        <v>544500</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
 </file>